--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Podxl2-Sell.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Podxl2-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Sell</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.925176156112356</v>
+        <v>1.245351666666666</v>
       </c>
       <c r="H2">
-        <v>0.925176156112356</v>
+        <v>3.736054999999999</v>
       </c>
       <c r="I2">
-        <v>0.288814352911728</v>
+        <v>0.2495810593745</v>
       </c>
       <c r="J2">
-        <v>0.288814352911728</v>
+        <v>0.2495810593745</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.52355150852913</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N2">
-        <v>6.52355150852913</v>
+        <v>0.766316</v>
       </c>
       <c r="O2">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P2">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q2">
-        <v>6.035434308861943</v>
+        <v>0.3181109692644444</v>
       </c>
       <c r="R2">
-        <v>6.035434308861943</v>
+        <v>2.86299872338</v>
       </c>
       <c r="S2">
-        <v>0.00709979566331127</v>
+        <v>0.0001973956403680998</v>
       </c>
       <c r="T2">
-        <v>0.00709979566331127</v>
+        <v>0.0001973956403680999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.925176156112356</v>
+        <v>1.245351666666666</v>
       </c>
       <c r="H3">
-        <v>0.925176156112356</v>
+        <v>3.736054999999999</v>
       </c>
       <c r="I3">
-        <v>0.288814352911728</v>
+        <v>0.2495810593745</v>
       </c>
       <c r="J3">
-        <v>0.288814352911728</v>
+        <v>0.2495810593745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.47680559342688</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N3">
-        <v>7.47680559342688</v>
+        <v>150.732736</v>
       </c>
       <c r="O3">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P3">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q3">
-        <v>6.917362258926044</v>
+        <v>62.57175466627555</v>
       </c>
       <c r="R3">
-        <v>6.917362258926044</v>
+        <v>563.1457919964799</v>
       </c>
       <c r="S3">
-        <v>0.008137253435989571</v>
+        <v>0.03882730485485849</v>
       </c>
       <c r="T3">
-        <v>0.008137253435989571</v>
+        <v>0.0388273048548585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.925176156112356</v>
+        <v>1.245351666666666</v>
       </c>
       <c r="H4">
-        <v>0.925176156112356</v>
+        <v>3.736054999999999</v>
       </c>
       <c r="I4">
-        <v>0.288814352911728</v>
+        <v>0.2495810593745</v>
       </c>
       <c r="J4">
-        <v>0.288814352911728</v>
+        <v>0.2495810593745</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>251.372816573784</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N4">
-        <v>251.372816573784</v>
+        <v>44.924405</v>
       </c>
       <c r="O4">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P4">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q4">
-        <v>232.5641361888698</v>
+        <v>18.64889421358611</v>
       </c>
       <c r="R4">
-        <v>232.5641361888698</v>
+        <v>167.840047922275</v>
       </c>
       <c r="S4">
-        <v>0.2735773038124271</v>
+        <v>0.01157209518414187</v>
       </c>
       <c r="T4">
-        <v>0.2735773038124271</v>
+        <v>0.01157209518414188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.535946481575455</v>
+        <v>1.245351666666666</v>
       </c>
       <c r="H5">
-        <v>0.535946481575455</v>
+        <v>3.736054999999999</v>
       </c>
       <c r="I5">
-        <v>0.1673076367661321</v>
+        <v>0.2495810593745</v>
       </c>
       <c r="J5">
-        <v>0.1673076367661321</v>
+        <v>0.2495810593745</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.52355150852913</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N5">
-        <v>6.52355150852913</v>
+        <v>772.483246</v>
       </c>
       <c r="O5">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P5">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q5">
-        <v>3.496274478372439</v>
+        <v>320.6710992927255</v>
       </c>
       <c r="R5">
-        <v>3.496274478372439</v>
+        <v>2886.03989363453</v>
       </c>
       <c r="S5">
-        <v>0.004112849731931748</v>
+        <v>0.1989842636951315</v>
       </c>
       <c r="T5">
-        <v>0.004112849731931748</v>
+        <v>0.1989842636951315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.535946481575455</v>
+        <v>0.7299296666666667</v>
       </c>
       <c r="H6">
-        <v>0.535946481575455</v>
+        <v>2.189789</v>
       </c>
       <c r="I6">
-        <v>0.1673076367661321</v>
+        <v>0.1462852817816191</v>
       </c>
       <c r="J6">
-        <v>0.1673076367661321</v>
+        <v>0.1462852817816191</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>7.47680559342688</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N6">
-        <v>7.47680559342688</v>
+        <v>0.766316</v>
       </c>
       <c r="O6">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P6">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q6">
-        <v>4.007167651220818</v>
+        <v>0.1864522608137778</v>
       </c>
       <c r="R6">
-        <v>4.007167651220818</v>
+        <v>1.678070347324</v>
       </c>
       <c r="S6">
-        <v>0.004713839975115791</v>
+        <v>0.0001156981901835013</v>
       </c>
       <c r="T6">
-        <v>0.004713839975115791</v>
+        <v>0.0001156981901835014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.535946481575455</v>
+        <v>0.7299296666666667</v>
       </c>
       <c r="H7">
-        <v>0.535946481575455</v>
+        <v>2.189789</v>
       </c>
       <c r="I7">
-        <v>0.1673076367661321</v>
+        <v>0.1462852817816191</v>
       </c>
       <c r="J7">
-        <v>0.1673076367661321</v>
+        <v>0.1462852817816191</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>251.372816573784</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N7">
-        <v>251.372816573784</v>
+        <v>150.732736</v>
       </c>
       <c r="O7">
-        <v>0.947242756650817</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P7">
-        <v>0.947242756650817</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q7">
-        <v>134.7223766064318</v>
+        <v>36.67476524807823</v>
       </c>
       <c r="R7">
-        <v>134.7223766064318</v>
+        <v>330.0728872327041</v>
       </c>
       <c r="S7">
-        <v>0.1584809470590845</v>
+        <v>0.02275758924074076</v>
       </c>
       <c r="T7">
-        <v>0.1584809470590845</v>
+        <v>0.02275758924074077</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.74223670642042</v>
+        <v>0.7299296666666667</v>
       </c>
       <c r="H8">
-        <v>1.74223670642042</v>
+        <v>2.189789</v>
       </c>
       <c r="I8">
-        <v>0.54387801032214</v>
+        <v>0.1462852817816191</v>
       </c>
       <c r="J8">
-        <v>0.54387801032214</v>
+        <v>0.1462852817816191</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.52355150852913</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N8">
-        <v>6.52355150852913</v>
+        <v>44.924405</v>
       </c>
       <c r="O8">
-        <v>0.02458255828262532</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P8">
-        <v>0.02458255828262532</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q8">
-        <v>11.36557089438375</v>
+        <v>10.93055198894944</v>
       </c>
       <c r="R8">
-        <v>11.36557089438375</v>
+        <v>98.37496790054502</v>
       </c>
       <c r="S8">
-        <v>0.0133699128873823</v>
+        <v>0.006782674971644384</v>
       </c>
       <c r="T8">
-        <v>0.0133699128873823</v>
+        <v>0.006782674971644385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.74223670642042</v>
+        <v>0.7299296666666667</v>
       </c>
       <c r="H9">
-        <v>1.74223670642042</v>
+        <v>2.189789</v>
       </c>
       <c r="I9">
-        <v>0.54387801032214</v>
+        <v>0.1462852817816191</v>
       </c>
       <c r="J9">
-        <v>0.54387801032214</v>
+        <v>0.1462852817816191</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.47680559342688</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N9">
-        <v>7.47680559342688</v>
+        <v>772.483246</v>
       </c>
       <c r="O9">
-        <v>0.02817468506655764</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P9">
-        <v>0.02817468506655764</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q9">
-        <v>13.02636515163782</v>
+        <v>187.9528127527882</v>
       </c>
       <c r="R9">
-        <v>13.02636515163782</v>
+        <v>1691.575314775094</v>
       </c>
       <c r="S9">
-        <v>0.01532359165545228</v>
+        <v>0.1166293193790505</v>
       </c>
       <c r="T9">
-        <v>0.01532359165545228</v>
+        <v>0.1166293193790505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.162711</v>
+      </c>
+      <c r="H10">
+        <v>0.488133</v>
+      </c>
+      <c r="I10">
+        <v>0.03260892873784053</v>
+      </c>
+      <c r="J10">
+        <v>0.03260892873784053</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2554386666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.766316</v>
+      </c>
+      <c r="O10">
+        <v>0.0007909079353329646</v>
+      </c>
+      <c r="P10">
+        <v>0.0007909079353329647</v>
+      </c>
+      <c r="Q10">
+        <v>0.04156268089199999</v>
+      </c>
+      <c r="R10">
+        <v>0.374064128028</v>
+      </c>
+      <c r="S10">
+        <v>2.579066050146523E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.579066050146524E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.162711</v>
+      </c>
+      <c r="H11">
+        <v>0.488133</v>
+      </c>
+      <c r="I11">
+        <v>0.03260892873784053</v>
+      </c>
+      <c r="J11">
+        <v>0.03260892873784053</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>50.24424533333334</v>
+      </c>
+      <c r="N11">
+        <v>150.732736</v>
+      </c>
+      <c r="O11">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="P11">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="Q11">
+        <v>8.175291402432</v>
+      </c>
+      <c r="R11">
+        <v>73.57762262188801</v>
+      </c>
+      <c r="S11">
+        <v>0.005072968358527013</v>
+      </c>
+      <c r="T11">
+        <v>0.005072968358527013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.162711</v>
+      </c>
+      <c r="H12">
+        <v>0.488133</v>
+      </c>
+      <c r="I12">
+        <v>0.03260892873784053</v>
+      </c>
+      <c r="J12">
+        <v>0.03260892873784053</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>14.97480166666667</v>
+      </c>
+      <c r="N12">
+        <v>44.924405</v>
+      </c>
+      <c r="O12">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="P12">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="Q12">
+        <v>2.436564953985</v>
+      </c>
+      <c r="R12">
+        <v>21.929084585865</v>
+      </c>
+      <c r="S12">
+        <v>0.0015119481748852</v>
+      </c>
+      <c r="T12">
+        <v>0.0015119481748852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.74223670642042</v>
-      </c>
-      <c r="H10">
-        <v>1.74223670642042</v>
-      </c>
-      <c r="I10">
-        <v>0.54387801032214</v>
-      </c>
-      <c r="J10">
-        <v>0.54387801032214</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>251.372816573784</v>
-      </c>
-      <c r="N10">
-        <v>251.372816573784</v>
-      </c>
-      <c r="O10">
-        <v>0.947242756650817</v>
-      </c>
-      <c r="P10">
-        <v>0.947242756650817</v>
-      </c>
-      <c r="Q10">
-        <v>437.9509480311338</v>
-      </c>
-      <c r="R10">
-        <v>437.9509480311338</v>
-      </c>
-      <c r="S10">
-        <v>0.5151845057793054</v>
-      </c>
-      <c r="T10">
-        <v>0.5151845057793054</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.162711</v>
+      </c>
+      <c r="H13">
+        <v>0.488133</v>
+      </c>
+      <c r="I13">
+        <v>0.03260892873784053</v>
+      </c>
+      <c r="J13">
+        <v>0.03260892873784053</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>257.4944153333333</v>
+      </c>
+      <c r="N13">
+        <v>772.483246</v>
+      </c>
+      <c r="O13">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="P13">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="Q13">
+        <v>41.897173813302</v>
+      </c>
+      <c r="R13">
+        <v>377.074564319718</v>
+      </c>
+      <c r="S13">
+        <v>0.02599822154392686</v>
+      </c>
+      <c r="T13">
+        <v>0.02599822154392686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.121799</v>
+      </c>
+      <c r="H14">
+        <v>0.365397</v>
+      </c>
+      <c r="I14">
+        <v>0.02440975048607801</v>
+      </c>
+      <c r="J14">
+        <v>0.02440975048607801</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.2554386666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.766316</v>
+      </c>
+      <c r="O14">
+        <v>0.0007909079353329646</v>
+      </c>
+      <c r="P14">
+        <v>0.0007909079353329647</v>
+      </c>
+      <c r="Q14">
+        <v>0.03111217416133333</v>
+      </c>
+      <c r="R14">
+        <v>0.280009567452</v>
+      </c>
+      <c r="S14">
+        <v>1.930586535893679E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.930586535893679E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.121799</v>
+      </c>
+      <c r="H15">
+        <v>0.365397</v>
+      </c>
+      <c r="I15">
+        <v>0.02440975048607801</v>
+      </c>
+      <c r="J15">
+        <v>0.02440975048607801</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>50.24424533333334</v>
+      </c>
+      <c r="N15">
+        <v>150.732736</v>
+      </c>
+      <c r="O15">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="P15">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="Q15">
+        <v>6.119698837354667</v>
+      </c>
+      <c r="R15">
+        <v>55.077289536192</v>
+      </c>
+      <c r="S15">
+        <v>0.003797422873070854</v>
+      </c>
+      <c r="T15">
+        <v>0.003797422873070854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.121799</v>
+      </c>
+      <c r="H16">
+        <v>0.365397</v>
+      </c>
+      <c r="I16">
+        <v>0.02440975048607801</v>
+      </c>
+      <c r="J16">
+        <v>0.02440975048607801</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.97480166666667</v>
+      </c>
+      <c r="N16">
+        <v>44.924405</v>
+      </c>
+      <c r="O16">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="P16">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="Q16">
+        <v>1.823915868198333</v>
+      </c>
+      <c r="R16">
+        <v>16.415242813785</v>
+      </c>
+      <c r="S16">
+        <v>0.001131784426085775</v>
+      </c>
+      <c r="T16">
+        <v>0.001131784426085775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.121799</v>
+      </c>
+      <c r="H17">
+        <v>0.365397</v>
+      </c>
+      <c r="I17">
+        <v>0.02440975048607801</v>
+      </c>
+      <c r="J17">
+        <v>0.02440975048607801</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>257.4944153333333</v>
+      </c>
+      <c r="N17">
+        <v>772.483246</v>
+      </c>
+      <c r="O17">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="P17">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="Q17">
+        <v>31.36256229318466</v>
+      </c>
+      <c r="R17">
+        <v>282.263060638662</v>
+      </c>
+      <c r="S17">
+        <v>0.01946123732156244</v>
+      </c>
+      <c r="T17">
+        <v>0.01946123732156245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.033534</v>
+      </c>
+      <c r="H18">
+        <v>0.100602</v>
+      </c>
+      <c r="I18">
+        <v>0.00672055249057989</v>
+      </c>
+      <c r="J18">
+        <v>0.00672055249057989</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.2554386666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.766316</v>
+      </c>
+      <c r="O18">
+        <v>0.0007909079353329646</v>
+      </c>
+      <c r="P18">
+        <v>0.0007909079353329647</v>
+      </c>
+      <c r="Q18">
+        <v>0.008565880248</v>
+      </c>
+      <c r="R18">
+        <v>0.077092922232</v>
+      </c>
+      <c r="S18">
+        <v>5.315338294621355E-06</v>
+      </c>
+      <c r="T18">
+        <v>5.315338294621355E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.033534</v>
+      </c>
+      <c r="H19">
+        <v>0.100602</v>
+      </c>
+      <c r="I19">
+        <v>0.00672055249057989</v>
+      </c>
+      <c r="J19">
+        <v>0.00672055249057989</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>50.24424533333334</v>
+      </c>
+      <c r="N19">
+        <v>150.732736</v>
+      </c>
+      <c r="O19">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="P19">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="Q19">
+        <v>1.684890523008</v>
+      </c>
+      <c r="R19">
+        <v>15.164014707072</v>
+      </c>
+      <c r="S19">
+        <v>0.001045515797548075</v>
+      </c>
+      <c r="T19">
+        <v>0.001045515797548075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.033534</v>
+      </c>
+      <c r="H20">
+        <v>0.100602</v>
+      </c>
+      <c r="I20">
+        <v>0.00672055249057989</v>
+      </c>
+      <c r="J20">
+        <v>0.00672055249057989</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.97480166666667</v>
+      </c>
+      <c r="N20">
+        <v>44.924405</v>
+      </c>
+      <c r="O20">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="P20">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="Q20">
+        <v>0.50216499909</v>
+      </c>
+      <c r="R20">
+        <v>4.51948499181</v>
+      </c>
+      <c r="S20">
+        <v>0.0003116056695404755</v>
+      </c>
+      <c r="T20">
+        <v>0.0003116056695404755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.033534</v>
+      </c>
+      <c r="H21">
+        <v>0.100602</v>
+      </c>
+      <c r="I21">
+        <v>0.00672055249057989</v>
+      </c>
+      <c r="J21">
+        <v>0.00672055249057989</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>257.4944153333333</v>
+      </c>
+      <c r="N21">
+        <v>772.483246</v>
+      </c>
+      <c r="O21">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="P21">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="Q21">
+        <v>8.634817723788</v>
+      </c>
+      <c r="R21">
+        <v>77.71335951409201</v>
+      </c>
+      <c r="S21">
+        <v>0.005358115685196718</v>
+      </c>
+      <c r="T21">
+        <v>0.005358115685196718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.696443</v>
+      </c>
+      <c r="H22">
+        <v>8.089328999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.5403944271293825</v>
+      </c>
+      <c r="J22">
+        <v>0.5403944271293825</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2554386666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.766316</v>
+      </c>
+      <c r="O22">
+        <v>0.0007909079353329646</v>
+      </c>
+      <c r="P22">
+        <v>0.0007909079353329647</v>
+      </c>
+      <c r="Q22">
+        <v>0.6887758046626666</v>
+      </c>
+      <c r="R22">
+        <v>6.198982241963999</v>
+      </c>
+      <c r="S22">
+        <v>0.00042740224062634</v>
+      </c>
+      <c r="T22">
+        <v>0.0004274022406263402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.696443</v>
+      </c>
+      <c r="H23">
+        <v>8.089328999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.5403944271293825</v>
+      </c>
+      <c r="J23">
+        <v>0.5403944271293825</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>50.24424533333334</v>
+      </c>
+      <c r="N23">
+        <v>150.732736</v>
+      </c>
+      <c r="O23">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="P23">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="Q23">
+        <v>135.4807436193493</v>
+      </c>
+      <c r="R23">
+        <v>1219.326692574144</v>
+      </c>
+      <c r="S23">
+        <v>0.08406911652913238</v>
+      </c>
+      <c r="T23">
+        <v>0.08406911652913238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.696443</v>
+      </c>
+      <c r="H24">
+        <v>8.089328999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.5403944271293825</v>
+      </c>
+      <c r="J24">
+        <v>0.5403944271293825</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.97480166666667</v>
+      </c>
+      <c r="N24">
+        <v>44.924405</v>
+      </c>
+      <c r="O24">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="P24">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="Q24">
+        <v>40.37869913047167</v>
+      </c>
+      <c r="R24">
+        <v>363.408292174245</v>
+      </c>
+      <c r="S24">
+        <v>0.02505597084728122</v>
+      </c>
+      <c r="T24">
+        <v>0.02505597084728122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.696443</v>
+      </c>
+      <c r="H25">
+        <v>8.089328999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.5403944271293825</v>
+      </c>
+      <c r="J25">
+        <v>0.5403944271293825</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>257.4944153333333</v>
+      </c>
+      <c r="N25">
+        <v>772.483246</v>
+      </c>
+      <c r="O25">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="P25">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="Q25">
+        <v>694.3190137646593</v>
+      </c>
+      <c r="R25">
+        <v>6248.871123881933</v>
+      </c>
+      <c r="S25">
+        <v>0.4308419375123426</v>
+      </c>
+      <c r="T25">
+        <v>0.4308419375123426</v>
       </c>
     </row>
   </sheetData>
